--- a/Users Loads21.xlsx
+++ b/Users Loads21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.844958077961429</v>
+        <v>3.549002040985112</v>
       </c>
       <c r="C2" t="n">
-        <v>13.01504088738902</v>
+        <v>5.920910316106079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2748254646645154</v>
+        <v>0.5046761629203652</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.377133745950956</v>
+        <v>4.701567203995966</v>
       </c>
       <c r="C3" t="n">
-        <v>5.910466288704623</v>
+        <v>2.128579211505883</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2873937253885012</v>
+        <v>0.2347006499076568</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.747775048379401</v>
+        <v>24.89704965903647</v>
       </c>
       <c r="C4" t="n">
-        <v>5.722614510676433</v>
+        <v>3.591925060815581</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2704978373231651</v>
+        <v>0.2393622870667433</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.71082366334794</v>
+        <v>25.40763435287513</v>
       </c>
       <c r="C5" t="n">
-        <v>6.936281480631997</v>
+        <v>5.763896027392959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2618783389028506</v>
+        <v>0.473410923521888</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.03336300400958</v>
+        <v>27.7155993800383</v>
       </c>
       <c r="C6" t="n">
-        <v>5.483178611622561</v>
+        <v>3.924989885302224</v>
       </c>
       <c r="D6" t="n">
-        <v>0.476205610621686</v>
+        <v>0.4495565034980107</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.24722940196643</v>
+        <v>28.70589739754918</v>
       </c>
       <c r="C7" t="n">
-        <v>5.980065079519332</v>
+        <v>6.547303912417824</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3740899464359771</v>
+        <v>0.363691940966677</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33.60361286226838</v>
+        <v>28.9474090844941</v>
       </c>
       <c r="C8" t="n">
-        <v>9.787367525940132</v>
+        <v>3.594225935587229</v>
       </c>
       <c r="D8" t="n">
-        <v>0.587092642035552</v>
+        <v>0.5614032296489461</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.28766770872964</v>
+        <v>29.28060521935764</v>
       </c>
       <c r="C9" t="n">
-        <v>6.841354185888259</v>
+        <v>5.941376481640827</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3123418829307431</v>
+        <v>0.5599093400145091</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38.20439043795118</v>
+        <v>29.79888294429146</v>
       </c>
       <c r="C10" t="n">
-        <v>1.579377366139318</v>
+        <v>8.570841295250922</v>
       </c>
       <c r="D10" t="n">
-        <v>0.199632387580947</v>
+        <v>0.5864776022267965</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39.44059990103523</v>
+        <v>31.99535133286131</v>
       </c>
       <c r="C11" t="n">
-        <v>9.839499538828665</v>
+        <v>2.685758212745861</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3503597733354625</v>
+        <v>0.4504252297610689</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41.96495048810759</v>
+        <v>32.28306324382945</v>
       </c>
       <c r="C12" t="n">
-        <v>5.56408194686513</v>
+        <v>6.40341971296473</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3495680817108239</v>
+        <v>0.3608168959997716</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>43.82246788716451</v>
+        <v>32.80251407884936</v>
       </c>
       <c r="C13" t="n">
-        <v>9.701628763415782</v>
+        <v>4.652788486339528</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3598780519212327</v>
+        <v>0.5364662361080966</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>46.1215647588327</v>
+        <v>34.17173375263295</v>
       </c>
       <c r="C14" t="n">
-        <v>4.035090581175005</v>
+        <v>2.656354586914867</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1186570649813064</v>
+        <v>0.2461498720556617</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47.85958073531506</v>
+        <v>38.65534588369502</v>
       </c>
       <c r="C15" t="n">
-        <v>2.913663744718103</v>
+        <v>3.376219820481659</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2287970957908969</v>
+        <v>0.2846923715809954</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>51.77482674043671</v>
+        <v>39.3969847908689</v>
       </c>
       <c r="C16" t="n">
-        <v>12.33000094460334</v>
+        <v>5.847797333772785</v>
       </c>
       <c r="D16" t="n">
-        <v>0.251582015378337</v>
+        <v>0.610551657851126</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>51.98122096378281</v>
+        <v>40.15245631420453</v>
       </c>
       <c r="C17" t="n">
-        <v>3.953820086586572</v>
+        <v>5.003571061324997</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1730409440767527</v>
+        <v>0.4275109575782723</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>52.70563984145353</v>
+        <v>40.39704074563207</v>
       </c>
       <c r="C18" t="n">
-        <v>4.18505842493788</v>
+        <v>3.011084607311341</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07532103086685714</v>
+        <v>0.5602818326300637</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>57.18837203580622</v>
+        <v>44.68059995034834</v>
       </c>
       <c r="C19" t="n">
-        <v>11.43974011420487</v>
+        <v>8.267586281539778</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2946487742408099</v>
+        <v>0.7541075925556845</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>57.34502938070834</v>
+        <v>44.8731684069034</v>
       </c>
       <c r="C20" t="n">
-        <v>9.166100132800786</v>
+        <v>7.744353823533627</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3728570122246487</v>
+        <v>0.5838520137404215</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>58.74887624858376</v>
+        <v>49.53836316326489</v>
       </c>
       <c r="C21" t="n">
-        <v>3.078351685388936</v>
+        <v>5.037443392572202</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1938206403795722</v>
+        <v>0.5192344730762715</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>59.5881044684608</v>
+        <v>53.90232659544064</v>
       </c>
       <c r="C22" t="n">
-        <v>2.616076461662542</v>
+        <v>2.601411237540201</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06905914599505411</v>
+        <v>0.4393815164804102</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>63.18160933726164</v>
+        <v>54.3267988307084</v>
       </c>
       <c r="C23" t="n">
-        <v>5.421047449630971</v>
+        <v>3.726762465324253</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07074462325366893</v>
+        <v>0.5958474913229082</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>65.14045545063807</v>
+        <v>55.53767390222259</v>
       </c>
       <c r="C24" t="n">
-        <v>6.229476428220811</v>
+        <v>8.227466583044626</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5534885629957209</v>
+        <v>0.5498064013963135</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>66.14660826689313</v>
+        <v>55.6124258706951</v>
       </c>
       <c r="C25" t="n">
-        <v>3.817885692109187</v>
+        <v>1.371158548615634</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0600879586615155</v>
+        <v>0.3261154478608849</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>72.08024191319036</v>
+        <v>56.07269643889632</v>
       </c>
       <c r="C26" t="n">
-        <v>5.997037690028256</v>
+        <v>3.128966456147886</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1790569664015101</v>
+        <v>0.3457104690576793</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>80.02863304960978</v>
+        <v>60.40449516779562</v>
       </c>
       <c r="C27" t="n">
-        <v>4.975404139055919</v>
+        <v>2.900427098804642</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3944234877216966</v>
+        <v>0.233726525876494</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>81.85537152356348</v>
+        <v>62.77820245342685</v>
       </c>
       <c r="C28" t="n">
-        <v>5.19169766921479</v>
+        <v>4.022391567723837</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08803537028108183</v>
+        <v>0.1935328123797836</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>85.09625696254598</v>
+        <v>67.10348550367897</v>
       </c>
       <c r="C29" t="n">
-        <v>4.541782681762045</v>
+        <v>2.088993628895523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2769324852335914</v>
+        <v>0.2712829443666336</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>85.66611361140045</v>
+        <v>68.41838734751978</v>
       </c>
       <c r="C30" t="n">
-        <v>2.607558582790305</v>
+        <v>3.180682948667949</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1155827959496511</v>
+        <v>0.2132067120687068</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>88.04313266557845</v>
+        <v>80.21484724568614</v>
       </c>
       <c r="C31" t="n">
-        <v>8.381616878046161</v>
+        <v>8.162889871581445</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2560254622550455</v>
+        <v>0.5587576147131091</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>88.30293758016408</v>
+        <v>80.62343184066046</v>
       </c>
       <c r="C32" t="n">
-        <v>7.634146751895845</v>
+        <v>6.072643420591841</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3147526963886187</v>
+        <v>0.6281436017132139</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>90.06066080208907</v>
+        <v>81.12651233713237</v>
       </c>
       <c r="C33" t="n">
-        <v>8.447148152994894</v>
+        <v>6.058105028906368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4235702899649552</v>
+        <v>0.487615366008791</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,181 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>94.55231523279495</v>
+        <v>84.56460148733915</v>
       </c>
       <c r="C34" t="n">
-        <v>9.740882591877231</v>
+        <v>3.200359441969615</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2496175232791466</v>
+        <v>0.4500313884561341</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>86.26027492089497</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.905659684310158</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5112723520372343</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>88.11297313672991</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.186518346121565</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.3934583626101703</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>88.40250933103228</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5.670766916117866</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.6545677563386395</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>89.13628026817405</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10.07173058047172</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.388034103967287</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90.37011428313143</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6.701078650276814</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.6600837257312172</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>92.18553353998912</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.885797870027363</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2321479262673757</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>95.21343659189858</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.426641546842181</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8961203784555977</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>95.80760528224833</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.430252468662544</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8438951043189388</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>97.05764603712879</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6.884909731562365</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5527859675763734</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>97.29157361717638</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.071021596953989</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5889553370169347</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>97.61217982379853</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.968410396222864</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6597982972340297</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>97.81717229296741</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.262582811051101</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2204737389845027</v>
       </c>
     </row>
   </sheetData>
